--- a/diff.xlsx
+++ b/diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arif\PycharmProjects\diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62C1D57E-A9D7-4094-96ED-CD35CC5835E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87B5959-63BC-4422-A366-10E34426F41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="1750" windowWidth="20310" windowHeight="18840" xr2:uid="{15E7320C-9EE4-406B-82DB-E0532F7A162B}"/>
+    <workbookView xWindow="4540" yWindow="400" windowWidth="29690" windowHeight="18840" xr2:uid="{15E7320C-9EE4-406B-82DB-E0532F7A162B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DC2400-928A-4A5E-86FC-A3B48BC8E18C}">
-  <dimension ref="D3:K8"/>
+  <dimension ref="D3:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -415,7 +415,7 @@
     <col min="11" max="11" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>2</v>
       </c>
@@ -440,8 +440,29 @@
       <c r="K3">
         <v>0.1</v>
       </c>
+      <c r="L3">
+        <v>0.1</v>
+      </c>
+      <c r="M3">
+        <v>0.1</v>
+      </c>
+      <c r="N3">
+        <v>0.1</v>
+      </c>
+      <c r="O3">
+        <v>0.1</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3">
+        <v>0.1</v>
+      </c>
+      <c r="R3">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>0</v>
       </c>
@@ -469,11 +490,39 @@
         <v>0.5</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4" si="1">J4+J3</f>
+        <f t="shared" ref="K4:R4" si="1">J4+J3</f>
         <v>0.6</v>
       </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -505,8 +554,36 @@
         <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
+      <c r="L5">
+        <f t="shared" ref="L5" si="3" xml:space="preserve"> POWER(L4,2)</f>
+        <v>0.48999999999999994</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5" si="4" xml:space="preserve"> POWER(M4,2)</f>
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5" si="5" xml:space="preserve"> POWER(N4,2)</f>
+        <v>0.80999999999999983</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5" si="6" xml:space="preserve"> POWER(O4,2)</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5" si="7" xml:space="preserve"> POWER(P4,2)</f>
+        <v>1.2099999999999997</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5" si="8" xml:space="preserve"> POWER(Q4,2)</f>
+        <v>1.44</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5" si="9" xml:space="preserve"> POWER(R4,2)</f>
+        <v>1.6900000000000002</v>
+      </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>3</v>
       </c>
@@ -534,8 +611,36 @@
         <f>K5-J5</f>
         <v>0.10999999999999999</v>
       </c>
+      <c r="K6">
+        <f t="shared" ref="K6:R6" si="10">L5-K5</f>
+        <v>0.12999999999999995</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="10"/>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="10"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="10"/>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="10"/>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="10"/>
+        <v>0.2300000000000002</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="10"/>
+        <v>0.25000000000000022</v>
+      </c>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>4</v>
       </c>
@@ -544,49 +649,105 @@
         <v>0.10000000000000002</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:K7" si="3">F6/F3</f>
+        <f t="shared" ref="F7:K7" si="11">F6/F3</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0.89999999999999969</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.0999999999999999</v>
       </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K8" si="12">K6/K3</f>
+        <v>1.2999999999999994</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L8" si="13">L6/L3</f>
+        <v>1.4999999999999996</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M8" si="14">M6/M3</f>
+        <v>1.6999999999999993</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N8" si="15">N6/N3</f>
+        <v>1.8999999999999995</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O8" si="16">O6/O3</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P8" si="17">P6/P3</f>
+        <v>2.300000000000002</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q8" si="18">Q6/Q3</f>
+        <v>2.5000000000000022</v>
+      </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:K8" si="4">F7/F4</f>
+        <f t="shared" ref="F8:K8" si="19">F7/F4</f>
         <v>3.0000000000000004</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>2.5000000000000004</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>2.333333333333333</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>2.2499999999999991</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>2.1999999999999997</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="12"/>
+        <v>2.1666666666666656</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="13"/>
+        <v>2.1428571428571423</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="14"/>
+        <v>2.1249999999999991</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="15"/>
+        <v>2.1111111111111107</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="16"/>
+        <v>2.1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="17"/>
+        <v>2.090909090909093</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="18"/>
+        <v>2.0833333333333353</v>
       </c>
     </row>
   </sheetData>

--- a/diff.xlsx
+++ b/diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arif\PycharmProjects\diff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87B5959-63BC-4422-A366-10E34426F41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E04FDE4-4A0F-46CC-9DE1-CD57EE042C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4540" yWindow="400" windowWidth="29690" windowHeight="18840" xr2:uid="{15E7320C-9EE4-406B-82DB-E0532F7A162B}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>dy/dx</t>
   </si>
   <si>
-    <t>dydx/x</t>
+    <t>dy/dx / x</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="D3:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
